--- a/Question/Other skils/CI-CD/CI-CD_I.xlsx
+++ b/Question/Other skils/CI-CD/CI-CD_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Other skils\CI-CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B63462A-F570-48E4-9399-979FE586143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE3A68-D8CF-4FB5-BF7F-428626D18020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
